--- a/cta策略/result/螺纹/CMO_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/CMO_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1728144083234024</v>
+        <v>0.1157386027668039</v>
       </c>
       <c r="D2">
-        <v>0.5966039730144747</v>
+        <v>0.3265076594589634</v>
       </c>
       <c r="E2">
-        <v>0.4801360449902886</v>
+        <v>0.2812312362844804</v>
       </c>
       <c r="F2">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
   </sheetData>
